--- a/src/main/webapp/WEB-INF/download/repositoryAdminInfo.xlsx
+++ b/src/main/webapp/WEB-INF/download/repositoryAdminInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -385,12 +385,15 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
